--- a/patient_data/patient_45.xlsx
+++ b/patient_data/patient_45.xlsx
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
@@ -1428,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1750,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1827,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
